--- a/sales.xlsx
+++ b/sales.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -33,12 +33,6 @@
     <t>town</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
     <t>kyoto</t>
   </si>
   <si>
@@ -48,15 +42,6 @@
     <t>kobe</t>
   </si>
   <si>
-    <t>tokyo</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -67,6 +52,18 @@
   </si>
   <si>
     <t>valid on 2021</t>
+  </si>
+  <si>
+    <t>product_a</t>
+  </si>
+  <si>
+    <t>product_b</t>
+  </si>
+  <si>
+    <t>product_c</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -385,23 +382,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D17"/>
+  <dimension ref="A4:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -409,127 +407,178 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44197</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44197</v>
       </c>
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44198</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>44201</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44203</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -550,7 +599,7 @@
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F16"/>
+  <dimension ref="A4:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
         <v>44201</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -576,8 +576,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
